--- a/biology/Zoologie/Acanthaxius/Acanthaxius.xlsx
+++ b/biology/Zoologie/Acanthaxius/Acanthaxius.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Acanthaxius est un genre de crustacés décapodes de la famille des Axiidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Acanthaxius a été créé en 1989 par Katsushi Sakai (d) et Michèle de Saint Laurent (d) (1926-2003)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Acanthaxius a été créé en 1989 par Katsushi Sakai (d) et Michèle de Saint Laurent (d) (1926-2003).
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (27 décembre 2017)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (27 décembre 2017) :
 Acanthaxius amakusana (Miyake &amp; Sakai, 1967)
 Acanthaxius clevai Ngoc-Ho, 2006
 Acanthaxius formosa Kensley &amp; Chan, 1998
@@ -589,7 +605,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Sakai &amp; de Saint Laurent, 1989 : « A Check Lis of Axiidae (Decapoda, Crustaces, Thalassinidea, Anomula), with Remarks and in Addition Descriptions of One New Subfamily, Eleven New Genera and Two New Species ». Naturalists, Publications of Tokushima Biological Laboratory, Shikoku University, vol. 3, p. 1-104 (lire en ligne [PDF]).</t>
         </is>
